--- a/ComparedResults/CCCTA_Comparison.xlsx
+++ b/ComparedResults/CCCTA_Comparison.xlsx
@@ -11,6 +11,7 @@
     <sheet name="OperatorChanges" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="TripsComparison" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="HoursComparison" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LeaseComparison" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -670,7 +671,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>SILVA PAUL</t>
+          <t>BANKS, LENARD</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -687,7 +688,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>BANKS, LENARD</t>
+          <t>SILVA PAUL</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -1263,4 +1264,275 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>AARON TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>DIAMOND HILL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Fowler Senior Transit LLC</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>GET CARE TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>HIGHER-SELF LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>HUGO FAMILY TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>MADE EAZY LLC</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>MONAI&amp;SON'S LLC</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>QUICK RIDES CA</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>REM Solutions LLC</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>430</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Transit LTM LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ComparedResults/CCCTA_Comparison.xlsx
+++ b/ComparedResults/CCCTA_Comparison.xlsx
@@ -472,8 +472,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
@@ -512,13 +512,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>1852</v>
+        <v>1925</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>1802</v>
+        <v>1882</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-50</v>
+        <v>-43</v>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
@@ -533,13 +533,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2019.062</v>
+        <v>2165.171</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1992.68</v>
+        <v>2056.047</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-26.38200000000006</v>
+        <v>-109.1240000000003</v>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
@@ -554,17 +554,17 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>27</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>Increased</t>
+        <v>-3</v>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -596,13 +596,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>64687.62590753134</v>
+        <v>69855.6230393421</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>63732.79836270678</v>
+        <v>66719.0841740351</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-954.8275448245549</v>
+        <v>-3136.538865306997</v>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,7 +629,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
     <col width="38" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
@@ -654,12 +654,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>SILVA, PAUL</t>
+          <t>SALGUERO, JORGE</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+          <t>JORGE TRANSPORTATION</t>
         </is>
       </c>
       <c r="C2" s="5" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BANKS, LENARD</t>
+          <t>SILVA, PAUL</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -679,16 +679,16 @@
           <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
-      <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Added</t>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>SILVA PAUL</t>
+          <t>MARSHALL, WILLIAM</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -696,24 +696,41 @@
           <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Added</t>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>GIBBS, SAMUEL</t>
+          <t>BROWN, JAMES</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+          <t>TRULY TRANSPORT LLC</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>COLEMAN, SHAWN</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -730,7 +747,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,13 +790,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-5</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="3">
@@ -789,13 +806,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -805,13 +822,13 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>451</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>-27</v>
+        <v>573</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -821,13 +838,13 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>97</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>18</v>
+        <v>73</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="6">
@@ -837,13 +854,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-7</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="7">
@@ -853,13 +870,13 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>-11</v>
+        <v>81</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -869,58 +886,58 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>106</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>16</v>
+        <v>89</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>JORGE TRANSPORTATION</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>MADE EAZY LLC</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>-9</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>-8</v>
@@ -929,65 +946,97 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>-19</v>
+        <v>-13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>REM SOLUTIONS LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>86</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>-30</v>
+        <v>142</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+          <t>REM SOLUTIONS LLC</t>
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>210</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>-1</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>185</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>218</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
           <t>TRANSIT LTM LLC</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>88</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>2</v>
+      <c r="B16" s="3" t="n">
+        <v>79</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>72</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
@@ -1001,278 +1050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="9" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>PARTNER</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>PREVIOUS</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>LATEST</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>CHANGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>AARON TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="n">
-        <v>90.19</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>102.901</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>12.711</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>DIAMOND HILL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>91.634</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>98.834</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>7.200000000000003</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>521.8149999999999</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>513.572</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>-8.242999999999938</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>FOWLER SENIOR TRANSIT LLC</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="n">
-        <v>106.428</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>93.691</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>-12.73699999999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>GET CARE TRANSIT LLC</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>119.749</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>119.456</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>-0.2929999999999922</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>HIGHER-SELF LLC</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="n">
-        <v>108.054</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>112.497</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>4.442999999999998</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>HUGO FAMILY TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B8" s="3" t="n">
-        <v>82.015</v>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>92.7</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>10.685</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>MADE EAZY LLC</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="n">
-        <v>62.386</v>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>85.931</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>23.54499999999999</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>MONAI&amp;SON'S LLC</t>
-        </is>
-      </c>
-      <c r="B10" s="3" t="n">
-        <v>132.646</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>99.629</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>-33.01699999999998</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="n">
-        <v>91.251</v>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>98.634</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>7.382999999999996</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>QUICK RIDES CA</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="n">
-        <v>174.113</v>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>159.764</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>-14.34899999999999</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>REM SOLUTIONS LLC</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="n">
-        <v>107.912</v>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>101.404</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>-6.507999999999996</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>230.468</v>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>213.667</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>-16.80100000000002</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>TRANSIT LTM LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>100.401</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>-0.4009999999999962</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1315,13 +1093,13 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>590</v>
+        <v>104.02</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
+        <v>104.21</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -1331,13 +1109,13 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>590</v>
+        <v>102.24</v>
       </c>
       <c r="C3" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+        <v>100.59</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>-1.65</v>
       </c>
     </row>
     <row r="4">
@@ -1347,29 +1125,29 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0</v>
+        <v>565.67</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
+        <v>603.55</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>37.88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Fowler Senior Transit LLC</t>
+          <t>FOWLER SENIOR TRANSIT LLC</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>590</v>
+        <v>84.37</v>
       </c>
       <c r="C5" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
+        <v>77.37</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>-7</v>
       </c>
     </row>
     <row r="6">
@@ -1379,13 +1157,13 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0</v>
+        <v>108.65</v>
       </c>
       <c r="C6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
+        <v>54.47</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>-54.18</v>
       </c>
     </row>
     <row r="7">
@@ -1395,6 +1173,309 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
+        <v>116.87</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>110.45</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>-6.42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>HUGO FAMILY TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>94.02</v>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>-11.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>JORGE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>MADE EAZY LLC</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>89.87</v>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>82.94</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>-6.93</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>MONAI&amp;SON'S LLC</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>135.82</v>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>127.25</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>-8.57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>100.28</v>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>100.6</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>QUICK RIDES CA</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>162.46</v>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>170.44</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>REM SOLUTIONS LLC</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>87.66</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>64.68000000000001</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>-22.98</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>221.13</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>228.91</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>TRANSIT LTM LLC</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>95.86</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>95.61</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>96.23</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>48.65</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>-47.58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>AARON TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>DIAMOND HILL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Fowler Senior Transit LLC</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>GET CARE TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>HIGHER-SELF LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>430</v>
       </c>
       <c r="C7" s="3" t="n">
@@ -1519,16 +1600,32 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
+          <t>TRULY TRANSPORT LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
           <t>Transit LTM LLC</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>590</v>
-      </c>
-      <c r="D15" s="3" t="n">
+      <c r="B16" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D16" s="3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/ComparedResults/CCCTA_Comparison.xlsx
+++ b/ComparedResults/CCCTA_Comparison.xlsx
@@ -41,10 +41,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -62,14 +62,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -479,8 +479,8 @@
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -518,17 +518,17 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1546</v>
+        <v>1852</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1624</v>
+        <v>1802</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>78</v>
+        <v>-50</v>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -539,17 +539,17 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1871.099</v>
+        <v>2019.062</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1956.566</v>
+        <v>1992.68</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>85.46699999999964</v>
+        <v>-26.38200000000006</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -560,17 +560,17 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>Decreased</t>
+          <t>Increased</t>
         </is>
       </c>
     </row>
@@ -581,17 +581,17 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>14</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="inlineStr">
-        <is>
-          <t>Increased</t>
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>No Change</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>57759.74579000001</v>
+        <v>64687.62590753135</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>60444.40506</v>
+        <v>63732.79836270677</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>2684.659269999996</v>
+        <v>-954.8275448245768</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,59 +635,93 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>Operator Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Partner</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Operator Name</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Partner</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>SILVA, PAUL</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>SILVA PAUL</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>BANKS, LENARD</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>Added</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>GIBBS, SAMUEL</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>MATUECCI, MATT</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>SILVA, PAUL</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
     </row>
@@ -711,8 +745,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -724,12 +758,12 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
           <t>PREVIOUS</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>LATEST</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -745,13 +779,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>14</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
@@ -761,13 +795,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D3" s="6" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -777,13 +811,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>-44</v>
+        <v>478</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-27</v>
       </c>
     </row>
     <row r="5">
@@ -793,13 +827,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -809,13 +843,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="7">
@@ -825,13 +859,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>8</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="8">
@@ -841,13 +875,13 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>92</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>69</v>
+        <v>90</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -857,13 +891,13 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -873,13 +907,13 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="11">
@@ -889,13 +923,13 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>64</v>
-      </c>
-      <c r="D11" s="6" t="n">
-        <v>-19</v>
+        <v>113</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="12">
@@ -905,13 +939,13 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="13">
@@ -921,13 +955,13 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>-1</v>
+        <v>116</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-30</v>
       </c>
     </row>
     <row r="14">
@@ -937,13 +971,13 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>39</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -953,13 +987,13 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>3</v>
+        <v>88</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -982,8 +1016,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -995,12 +1029,12 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
           <t>PREVIOUS</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>LATEST</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -1016,13 +1050,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>71.54000000000001</v>
+        <v>102.9</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>89.92</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>18.38</v>
+        <v>90.19</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>12.71</v>
       </c>
     </row>
     <row r="3">
@@ -1032,13 +1066,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>92.93000000000001</v>
+        <v>98.83</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>93.90000000000001</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>0.97</v>
+        <v>91.63</v>
+      </c>
+      <c r="D3" s="6" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="4">
@@ -1048,13 +1082,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>555.73</v>
+        <v>513.5700000000001</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>510.51</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>-45.22</v>
+        <v>521.8099999999999</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.24</v>
       </c>
     </row>
     <row r="5">
@@ -1064,13 +1098,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>98.95999999999999</v>
+        <v>93.69</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>78.37</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>-20.59</v>
+        <v>106.43</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.74</v>
       </c>
     </row>
     <row r="6">
@@ -1080,13 +1114,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>87.3</v>
+        <v>119.46</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>108.93</v>
+        <v>119.75</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.63</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="7">
@@ -1096,13 +1130,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>94.31</v>
+        <v>112.5</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>95.8</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>1.49</v>
+        <v>108.05</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>4.45</v>
       </c>
     </row>
     <row r="8">
@@ -1112,13 +1146,13 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>19.51</v>
+        <v>92.7</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>67.59</v>
+        <v>82.02</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>10.68</v>
       </c>
     </row>
     <row r="9">
@@ -1128,13 +1162,13 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>84.37</v>
+        <v>85.93000000000001</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>86.13</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>1.76</v>
+        <v>62.39</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>23.54</v>
       </c>
     </row>
     <row r="10">
@@ -1144,13 +1178,13 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>95.31999999999999</v>
+        <v>99.63</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>96.15000000000001</v>
+        <v>132.65</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.83</v>
+        <v>-33.02</v>
       </c>
     </row>
     <row r="11">
@@ -1160,13 +1194,13 @@
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>89.76000000000001</v>
+        <v>98.63</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>67.55</v>
+        <v>91.25</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-22.21</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="12">
@@ -1176,13 +1210,13 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>133.03</v>
+        <v>159.76</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>156.28</v>
+        <v>174.11</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>23.25</v>
+        <v>-14.35</v>
       </c>
     </row>
     <row r="13">
@@ -1192,13 +1226,13 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>72.45999999999999</v>
+        <v>101.4</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>65.37</v>
-      </c>
-      <c r="D13" s="6" t="n">
-        <v>-7.09</v>
+        <v>107.91</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-6.51</v>
       </c>
     </row>
     <row r="14">
@@ -1208,13 +1242,13 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>287.83</v>
+        <v>213.67</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>331.65</v>
+        <v>230.47</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>43.82</v>
+        <v>-16.8</v>
       </c>
     </row>
     <row r="15">
@@ -1224,13 +1258,13 @@
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>88.04000000000001</v>
+        <v>100</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>88.92</v>
+        <v>100.4</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.88</v>
+        <v>-0.4</v>
       </c>
     </row>
   </sheetData>
@@ -1253,8 +1287,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -1266,12 +1300,12 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
           <t>PREVIOUS</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>LATEST</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -1287,10 +1321,10 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>463.58</v>
+        <v>590</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>463.58</v>
+        <v>590</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
@@ -1383,10 +1417,10 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>0</v>
@@ -1479,10 +1513,10 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1450</v>
+        <v>1020</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1450</v>
+        <v>1020</v>
       </c>
       <c r="D14" s="4" t="n">
         <v>0</v>
@@ -1515,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1541,93 +1575,93 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>45663</v>
+        <v>45589</v>
       </c>
       <c r="B2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>45662</v>
+        <v>45595</v>
       </c>
       <c r="B3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>45668</v>
+        <v>45591</v>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>45667</v>
+        <v>45588</v>
       </c>
       <c r="B5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>45666</v>
+        <v>45594</v>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>45659</v>
+        <v>45586</v>
       </c>
       <c r="B7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>45656</v>
+        <v>45592</v>
       </c>
       <c r="B8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>45664</v>
+        <v>45587</v>
       </c>
       <c r="B9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>45657</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>45658</v>
+        <v>45593</v>
       </c>
       <c r="B11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>45660</v>
+        <v>45598</v>
       </c>
       <c r="B12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>45669</v>
+        <v>45596</v>
       </c>
       <c r="B13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>45665</v>
+        <v>45599</v>
       </c>
       <c r="B14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>45661</v>
+        <v>45590</v>
       </c>
       <c r="B15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>45644</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
+        <v>45579</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1635,9 +1669,9 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>45643</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
+        <v>45581</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1645,9 +1679,9 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>45653</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+        <v>45584</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1655,9 +1689,9 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>45647</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+        <v>45572</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1665,9 +1699,9 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
+        <v>45576</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1675,9 +1709,9 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
+        <v>45585</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1685,9 +1719,9 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
+        <v>45583</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1695,9 +1729,9 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>45651</v>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
+        <v>45575</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1705,9 +1739,9 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>45654</v>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
+        <v>45574</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1715,9 +1749,9 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>45645</v>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
+        <v>45580</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1725,9 +1759,9 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>45650</v>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
+        <v>45573</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1735,9 +1769,9 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
+        <v>45577</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1745,9 +1779,19 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
+        <v>45582</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>45578</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1772,7 +1816,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="33" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1785,7 +1829,7 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>-----  December 20, 2024  -----</t>
+          <t>There are no missing dates of work.</t>
         </is>
       </c>
     </row>

--- a/ComparedResults/CCCTA_Comparison.xlsx
+++ b/ComparedResults/CCCTA_Comparison.xlsx
@@ -518,13 +518,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1852</v>
+        <v>1947</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1802</v>
+        <v>1825</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>-50</v>
+        <v>-122</v>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2019.062</v>
+        <v>2013.358</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1992.68</v>
+        <v>1790.315</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>-26.38200000000006</v>
+        <v>-223.0429999999997</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
@@ -560,17 +560,17 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>25</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>27</v>
-      </c>
       <c r="D4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>Increased</t>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>64687.62590753135</v>
+        <v>62565.18375773182</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>63732.79836270677</v>
+        <v>56885.13332240602</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>-954.8275448245768</v>
+        <v>-5680.0504353258</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,7 +635,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
     <col width="38" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
   </cols>
@@ -677,7 +677,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>SILVA PAUL</t>
+          <t>MARSHALL, WILLIAM</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
@@ -685,41 +685,24 @@
           <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Added</t>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Removed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>BANKS, LENARD</t>
+          <t>FUENTES, PEDRO</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>GIBBS, SAMUEL</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -736,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,13 +762,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="3">
@@ -795,13 +778,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>78</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="4">
@@ -811,13 +794,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>451</v>
+        <v>573</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>478</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>-27</v>
+        <v>554</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -827,13 +810,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>79</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>18</v>
+        <v>90</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-48</v>
       </c>
     </row>
     <row r="6">
@@ -843,13 +826,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-7</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="7">
@@ -859,13 +842,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>101</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>-11</v>
+        <v>98</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -875,125 +858,109 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>16</v>
+        <v>108</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-9</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>113</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>-8</v>
+        <v>153</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>REM SOLUTIONS LLC</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>139</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-19</v>
+        <v>86</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>REM SOLUTIONS LLC</t>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>86</v>
+        <v>259</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>116</v>
+        <v>405</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-30</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+          <t>TRANSIT LTM LLC</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>211</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>TRANSIT LTM LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>90</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>88</v>
-      </c>
-      <c r="D15" s="6" t="n">
-        <v>2</v>
+        <v>52</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,13 +1017,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>102.9</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>90.19</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>12.71</v>
+        <v>102.13</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>-11.73</v>
       </c>
     </row>
     <row r="3">
@@ -1066,13 +1033,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>98.83</v>
+        <v>94.25</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>91.63</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>7.2</v>
+        <v>101.1</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-6.85</v>
       </c>
     </row>
     <row r="4">
@@ -1082,13 +1049,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>513.5700000000001</v>
+        <v>548.38</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>521.8099999999999</v>
+        <v>568.33</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-8.24</v>
+        <v>-19.95</v>
       </c>
     </row>
     <row r="5">
@@ -1098,13 +1065,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>93.69</v>
+        <v>37.73</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>106.43</v>
+        <v>105.7</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.74</v>
+        <v>-67.97</v>
       </c>
     </row>
     <row r="6">
@@ -1114,13 +1081,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>119.46</v>
+        <v>5.52</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>119.75</v>
+        <v>22.48</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.29</v>
+        <v>-16.96</v>
       </c>
     </row>
     <row r="7">
@@ -1130,13 +1097,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>112.5</v>
+        <v>109.3</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>108.05</v>
+        <v>99.7</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>4.45</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="8">
@@ -1146,125 +1113,109 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>92.7</v>
+        <v>46.33</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>82.02</v>
-      </c>
-      <c r="D8" s="6" t="n">
-        <v>10.68</v>
+        <v>85.7</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-39.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>85.93000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>62.39</v>
+        <v>80.45</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>23.54</v>
+        <v>11.85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>99.63</v>
+        <v>62.58</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>132.65</v>
+        <v>87.7</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-33.02</v>
+        <v>-25.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>98.63</v>
+        <v>202.68</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>91.25</v>
+        <v>169.72</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7.38</v>
+        <v>32.96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>REM SOLUTIONS LLC</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>159.76</v>
+        <v>125.55</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>174.11</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>-14.35</v>
+        <v>87.55</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>REM SOLUTIONS LLC</t>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>101.4</v>
+        <v>276.45</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>107.91</v>
+        <v>435.65</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-6.51</v>
+        <v>-159.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+          <t>TRANSIT LTM LLC</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>213.67</v>
+        <v>98.83</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>230.47</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>-16.8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>TRANSIT LTM LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>100.4</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>-0.4</v>
+        <v>67.13</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>31.7</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1321,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
@@ -1337,10 +1288,10 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0</v>
@@ -1369,13 +1320,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>590</v>
+        <v>307.5</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-307.5</v>
       </c>
     </row>
     <row r="6">
@@ -1401,10 +1352,10 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0</v>
@@ -1417,10 +1368,10 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D8" s="4" t="n">
         <v>0</v>
@@ -1429,30 +1380,30 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>430</v>
+        <v>455</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0</v>
+        <v>615</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D10" s="4" t="n">
         <v>0</v>
@@ -1461,14 +1412,14 @@
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D11" s="4" t="n">
         <v>0</v>
@@ -1477,14 +1428,14 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>REM Solutions LLC</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>590</v>
+        <v>455</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>590</v>
+        <v>455</v>
       </c>
       <c r="D12" s="4" t="n">
         <v>0</v>
@@ -1493,48 +1444,32 @@
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>REM Solutions LLC</t>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>430</v>
+        <v>1070</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>0</v>
+        <v>2140</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1070</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+          <t>Transit LTM LLC</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>1020</v>
+        <v>615</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>1020</v>
+        <v>615</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>Transit LTM LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D15" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1575,91 +1510,91 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>45589</v>
+        <v>45766</v>
       </c>
       <c r="B2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>45595</v>
+        <v>45761</v>
       </c>
       <c r="B3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>45591</v>
+        <v>45765</v>
       </c>
       <c r="B4" s="4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>45588</v>
+        <v>45759</v>
       </c>
       <c r="B5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>45594</v>
+        <v>45767</v>
       </c>
       <c r="B6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>45586</v>
+        <v>45756</v>
       </c>
       <c r="B7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>45592</v>
+        <v>45760</v>
       </c>
       <c r="B8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>45587</v>
+        <v>45762</v>
       </c>
       <c r="B9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>45597</v>
+        <v>45754</v>
       </c>
       <c r="B10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>45593</v>
+        <v>45764</v>
       </c>
       <c r="B11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>45598</v>
+        <v>45757</v>
       </c>
       <c r="B12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>45596</v>
+        <v>45763</v>
       </c>
       <c r="B13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>45599</v>
+        <v>45758</v>
       </c>
       <c r="B14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>45590</v>
+        <v>45755</v>
       </c>
       <c r="B15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>45579</v>
+        <v>45741</v>
       </c>
       <c r="B16" s="5" t="inlineStr">
         <is>
@@ -1669,7 +1604,7 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>45581</v>
+        <v>45746</v>
       </c>
       <c r="B17" s="5" t="inlineStr">
         <is>
@@ -1679,7 +1614,7 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>45584</v>
+        <v>45753</v>
       </c>
       <c r="B18" s="5" t="inlineStr">
         <is>
@@ -1689,7 +1624,7 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>45572</v>
+        <v>45743</v>
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
@@ -1699,7 +1634,7 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>45576</v>
+        <v>45742</v>
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
@@ -1709,7 +1644,7 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>45585</v>
+        <v>45748</v>
       </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
@@ -1719,7 +1654,7 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>45583</v>
+        <v>45752</v>
       </c>
       <c r="B22" s="5" t="inlineStr">
         <is>
@@ -1729,7 +1664,7 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>45575</v>
+        <v>45740</v>
       </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
@@ -1739,7 +1674,7 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>45574</v>
+        <v>45744</v>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
@@ -1749,7 +1684,7 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>45580</v>
+        <v>45751</v>
       </c>
       <c r="B25" s="5" t="inlineStr">
         <is>
@@ -1759,7 +1694,7 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>45573</v>
+        <v>45745</v>
       </c>
       <c r="B26" s="5" t="inlineStr">
         <is>
@@ -1769,7 +1704,7 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>45577</v>
+        <v>45750</v>
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
@@ -1779,7 +1714,7 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>45582</v>
+        <v>45747</v>
       </c>
       <c r="B28" s="5" t="inlineStr">
         <is>
@@ -1789,7 +1724,7 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
-        <v>45578</v>
+        <v>45749</v>
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
